--- a/NS3_data/ns3_timely_comparison.xlsx
+++ b/NS3_data/ns3_timely_comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bc2f39526058ad6/Desktop/NS3_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bc2f39526058ad6/Desktop/ns3_timely/Timely-NS3/NS3_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{9DEBAA2F-ED6D-4BE1-9277-EB0A527B7136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
